--- a/ProjetHTMLei5/public/uploads/eleves.xlsx
+++ b/ProjetHTMLei5/public/uploads/eleves.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Documents\COURS2016-2017\HTML\projet_html5\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Documents\COURS2016-2017\HTML\Projet\ProjetHTMLei5\ProjetHTMLei5\public\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>Nom</t>
   </si>
   <si>
     <t>Prénom</t>
-  </si>
-  <si>
-    <t>Moyenne</t>
   </si>
   <si>
     <t>Martin</t>
@@ -404,122 +401,212 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" t="s">
-        <v>4</v>
       </c>
       <c r="C2">
         <v>12</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>11</v>
+      </c>
+      <c r="E2">
+        <v>8</v>
+      </c>
+      <c r="F2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3">
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>10</v>
+      </c>
+      <c r="F3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>11</v>
+      </c>
+      <c r="E4">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C4">
+      <c r="C5">
+        <v>10</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
+      <c r="F5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>12</v>
+      </c>
+      <c r="D6">
+        <v>11</v>
+      </c>
+      <c r="E6">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="F6">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C6">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C7">
+        <v>10</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>8</v>
+      </c>
+      <c r="F8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="C9">
+        <v>10</v>
+      </c>
+      <c r="D9">
+        <v>9</v>
+      </c>
+      <c r="E9">
+        <v>10</v>
+      </c>
+      <c r="F9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>20</v>
-      </c>
       <c r="C10">
+        <v>10</v>
+      </c>
+      <c r="D10">
         <v>9</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
+      <c r="F10">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ProjetHTMLei5/public/uploads/eleves.xlsx
+++ b/ProjetHTMLei5/public/uploads/eleves.xlsx
@@ -401,15 +401,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -428,8 +428,11 @@
       <c r="F1">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -448,8 +451,11 @@
       <c r="F2">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -468,8 +474,11 @@
       <c r="F3">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -488,8 +497,11 @@
       <c r="F4">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -508,8 +520,11 @@
       <c r="F5">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -528,8 +543,11 @@
       <c r="F6">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -548,8 +566,11 @@
       <c r="F7">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -568,8 +589,11 @@
       <c r="F8">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -588,8 +612,11 @@
       <c r="F9">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -607,6 +634,9 @@
       </c>
       <c r="F10">
         <v>11</v>
+      </c>
+      <c r="G10">
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/ProjetHTMLei5/public/uploads/eleves.xlsx
+++ b/ProjetHTMLei5/public/uploads/eleves.xlsx
@@ -1,21 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexandre\Documents\COURS2016-2017\HTML\Projet\ProjetHTMLei5\ProjetHTMLei5\public\uploads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="27729"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20500" windowHeight="7820"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -89,7 +87,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -181,7 +179,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -216,7 +214,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -393,7 +391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -401,15 +399,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -431,8 +429,14 @@
       <c r="G1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -454,8 +458,14 @@
       <c r="G2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>23</v>
+      </c>
+      <c r="I2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -477,8 +487,14 @@
       <c r="G3">
         <v>12</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -500,8 +516,14 @@
       <c r="G4">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>23</v>
+      </c>
+      <c r="I4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -523,8 +545,14 @@
       <c r="G5">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>13</v>
+      </c>
+      <c r="I5">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -546,8 +574,14 @@
       <c r="G6">
         <v>18</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>23</v>
+      </c>
+      <c r="I6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -569,8 +603,14 @@
       <c r="G7">
         <v>12</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -592,8 +632,14 @@
       <c r="G8">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H8">
+        <v>23</v>
+      </c>
+      <c r="I8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -615,8 +661,14 @@
       <c r="G9">
         <v>12</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H9">
+        <v>13</v>
+      </c>
+      <c r="I9">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -638,8 +690,19 @@
       <c r="G10">
         <v>12</v>
       </c>
+      <c r="H10">
+        <v>13</v>
+      </c>
+      <c r="I10">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/ProjetHTMLei5/public/uploads/eleves.xlsx
+++ b/ProjetHTMLei5/public/uploads/eleves.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -45,9 +45,6 @@
     <t>Bernard</t>
   </si>
   <si>
-    <t>Petit</t>
-  </si>
-  <si>
     <t>Robert</t>
   </si>
   <si>
@@ -66,9 +63,6 @@
     <t>Adelaide</t>
   </si>
   <si>
-    <t>Adele</t>
-  </si>
-  <si>
     <t>Eve</t>
   </si>
   <si>
@@ -82,6 +76,12 @@
   </si>
   <si>
     <t>Melanie</t>
+  </si>
+  <si>
+    <t>LHOMMEAU</t>
+  </si>
+  <si>
+    <t>MEHDI</t>
   </si>
 </sst>
 </file>
@@ -391,7 +391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -402,7 +402,7 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -459,10 +459,10 @@
         <v>18</v>
       </c>
       <c r="H2">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="I2">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -499,7 +499,7 @@
         <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4">
         <v>12</v>
@@ -517,47 +517,47 @@
         <v>18</v>
       </c>
       <c r="H4">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="I4">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D5">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E5">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="F5">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G5">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="H5">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I5">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>12</v>
@@ -575,18 +575,18 @@
         <v>18</v>
       </c>
       <c r="H6">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I6">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7">
         <v>10</v>
@@ -612,10 +612,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>12</v>
@@ -633,18 +633,18 @@
         <v>18</v>
       </c>
       <c r="H8">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9">
         <v>10</v>
@@ -670,10 +670,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10">
         <v>10</v>
